--- a/static/xlsx/en/Events.xlsx
+++ b/static/xlsx/en/Events.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabri Mert\Workbench\Community_Website\static\xlsx\en\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E6117-C643-470F-B66A-C4AF1EA44171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -164,19 +170,37 @@
   </si>
   <si>
     <t>Archis Academy Education</t>
+  </si>
+  <si>
+    <t>AI Chats #1</t>
+  </si>
+  <si>
+    <t>AI Chats #2</t>
+  </si>
+  <si>
+    <t>STM CTF Event</t>
+  </si>
+  <si>
+    <t>Daniel Bohannon - A Multilayered Approach To Detecting Evasive Attackers</t>
+  </si>
+  <si>
+    <t>Alumni Interview - Game and Enterpreneurship</t>
+  </si>
+  <si>
+    <t>Digital Game Law</t>
+  </si>
+  <si>
+    <t>Interview with Selim Önal</t>
+  </si>
+  <si>
+    <t>Introduction to Cyber Security Education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,352 +227,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -571,253 +265,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,65 +279,31 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,27 +588,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="46.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="30.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="46.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:4">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1204,35 +622,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.4" spans="1:4">
+    <row r="2" spans="1:4" ht="17.5">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>44651.8333333333</v>
+        <v>44651.833333333299</v>
       </c>
       <c r="C2" s="5">
-        <v>44651.9166666667</v>
+        <v>44651.916666666701</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:4">
+    <row r="3" spans="1:4" ht="17.5">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>44703.5833333333</v>
+        <v>44703.583333333299</v>
       </c>
       <c r="C3" s="5">
-        <v>44703.7083333333</v>
+        <v>44703.708333333299</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="17.4" spans="1:4">
+    <row r="4" spans="1:4" ht="17.5">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="17.4" spans="1:4">
+    <row r="5" spans="1:4" ht="17.5">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1254,13 +672,13 @@
         <v>44722.5</v>
       </c>
       <c r="C5" s="5">
-        <v>44722.9166666667</v>
+        <v>44722.916666666701</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="1:4">
+    <row r="6" spans="1:4" ht="17.5">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1268,18 +686,18 @@
         <v>44732.75</v>
       </c>
       <c r="C6" s="5">
-        <v>44732.8333333333</v>
+        <v>44732.833333333299</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="17.4" spans="1:4">
+    <row r="7" spans="1:4" ht="17.5">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>44811.4166666667</v>
+        <v>44811.416666666701</v>
       </c>
       <c r="C7" s="5">
         <v>44811.75</v>
@@ -1288,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="17.4" spans="1:4">
+    <row r="8" spans="1:4" ht="17.5">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1296,18 +714,18 @@
         <v>44822.625</v>
       </c>
       <c r="C8" s="5">
-        <v>44822.7083333333</v>
+        <v>44822.708333333299</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="17.4" spans="1:4">
+    <row r="9" spans="1:4" ht="17.5">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5">
-        <v>44829.6041666667</v>
+        <v>44829.604166666701</v>
       </c>
       <c r="C9" s="5">
         <v>44829.6875</v>
@@ -1316,7 +734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="17.4" spans="1:4">
+    <row r="10" spans="1:4" ht="17.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1324,27 +742,27 @@
         <v>44834.5</v>
       </c>
       <c r="C10" s="5">
-        <v>44834.9166666667</v>
+        <v>44834.916666666701</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="1:4">
+    <row r="11" spans="1:4" ht="17.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5">
-        <v>44835.6041666667</v>
+        <v>44835.604166666701</v>
       </c>
       <c r="C11" s="5">
-        <v>44835.7083333333</v>
+        <v>44835.708333333299</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="1:4">
+    <row r="12" spans="1:4" ht="17.5">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1352,18 +770,18 @@
         <v>44842.5</v>
       </c>
       <c r="C12" s="5">
-        <v>44842.9166666667</v>
+        <v>44842.916666666701</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="1:4">
+    <row r="13" spans="1:4" ht="17.5">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5">
-        <v>44843.4166666667</v>
+        <v>44843.416666666701</v>
       </c>
       <c r="C13" s="5">
         <v>44843.75</v>
@@ -1372,26 +790,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="17.4" spans="1:4">
+    <row r="14" spans="1:4" ht="17.5">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="5">
-        <v>44844.8333333333</v>
+        <v>44844.833333333299</v>
       </c>
       <c r="C14" s="5">
-        <v>44844.9166666667</v>
+        <v>44844.916666666701</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="17.4" spans="1:4">
+    <row r="15" spans="1:4" ht="17.5">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5">
-        <v>44858.4166666667</v>
+        <v>44858.416666666701</v>
       </c>
       <c r="C15" s="5">
         <v>44858.625</v>
@@ -1400,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="1:4">
+    <row r="16" spans="1:4" ht="17.5">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1408,13 +826,13 @@
         <v>44865.5</v>
       </c>
       <c r="C16" s="5">
-        <v>44865.9166666667</v>
+        <v>44865.916666666701</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="17.4" spans="1:4">
+    <row r="17" spans="1:4" ht="17.5">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1422,13 +840,13 @@
         <v>44872.75</v>
       </c>
       <c r="C17" s="5">
-        <v>44872.9166666667</v>
+        <v>44872.916666666701</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="1:4">
+    <row r="18" spans="1:4" ht="17.5">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1436,18 +854,18 @@
         <v>44878.5</v>
       </c>
       <c r="C18" s="5">
-        <v>44878.9166666667</v>
+        <v>44878.916666666701</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="17.4" spans="1:4">
+    <row r="19" spans="1:4" ht="17.5">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="5">
-        <v>44902.6666666667</v>
+        <v>44902.666666666701</v>
       </c>
       <c r="C19" s="5">
         <v>44902.75</v>
@@ -1456,26 +874,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="17.4" spans="1:4">
+    <row r="20" spans="1:4" ht="17.5">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5">
-        <v>44921.8333333333</v>
+        <v>44921.833333333299</v>
       </c>
       <c r="C20" s="5">
-        <v>44921.9166666667</v>
+        <v>44921.916666666701</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="17.4" spans="1:4">
+    <row r="21" spans="1:4" ht="17.5">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="5">
-        <v>44938.6666666667</v>
+        <v>44938.666666666701</v>
       </c>
       <c r="C21" s="5">
         <v>44938.75</v>
@@ -1484,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="17.4" spans="1:4">
+    <row r="22" spans="1:4" ht="17.5">
       <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1492,13 +910,13 @@
         <v>44945.5</v>
       </c>
       <c r="C22" s="5">
-        <v>44945.5416666667</v>
+        <v>44945.541666666701</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="17.4" spans="1:4">
+    <row r="23" spans="1:4" ht="17.5">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1506,18 +924,18 @@
         <v>44950.625</v>
       </c>
       <c r="C23" s="5">
-        <v>44950.7083333333</v>
+        <v>44950.708333333299</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="1:4">
+    <row r="24" spans="1:4" ht="17.5">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5">
-        <v>44954.6666666667</v>
+        <v>44954.666666666701</v>
       </c>
       <c r="C24" s="5">
         <v>44954.75</v>
@@ -1526,21 +944,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="17.4" spans="1:4">
+    <row r="25" spans="1:4" ht="17.5">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5">
-        <v>44953.8333333333</v>
+        <v>44953.833333333299</v>
       </c>
       <c r="C25" s="5">
-        <v>44953.9166666667</v>
+        <v>44953.916666666701</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="17.4" spans="1:4">
+    <row r="26" spans="1:4" ht="17.5">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1548,13 +966,13 @@
         <v>44961.875</v>
       </c>
       <c r="C26" s="5">
-        <v>44961.9166666667</v>
+        <v>44961.916666666701</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="17.4" spans="1:4">
+    <row r="27" spans="1:4" ht="17.5">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1568,26 +986,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="17.4" spans="1:4">
+    <row r="28" spans="1:4" ht="17.5">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="5">
-        <v>45000.8333333333</v>
+        <v>45000.833333333299</v>
       </c>
       <c r="C28" s="5">
-        <v>45000.9166666667</v>
+        <v>45000.916666666701</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="17.4" spans="1:4">
+    <row r="29" spans="1:4" ht="17.5">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="5">
-        <v>45028.7291666667</v>
+        <v>45028.729166666701</v>
       </c>
       <c r="C29" s="5">
         <v>45028.75</v>
@@ -1596,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="17.4" spans="1:4">
+    <row r="30" spans="1:4" ht="17.5">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -1610,12 +1028,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" ht="17.4" spans="1:4">
+    <row r="31" spans="1:4" ht="17.5">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="5">
-        <v>45031.8333333333</v>
+        <v>45031.833333333299</v>
       </c>
       <c r="C31" s="5">
         <v>45031.875</v>
@@ -1624,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="17.4" spans="1:4">
+    <row r="32" spans="1:4" ht="17.5">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1632,60 +1050,60 @@
         <v>45034.8125</v>
       </c>
       <c r="C32" s="5">
-        <v>45034.8541666667</v>
+        <v>45034.854166666701</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="17.4" spans="1:4">
+    <row r="33" spans="1:4" ht="17.5">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="5">
-        <v>45045.7708333333</v>
+        <v>45045.770833333299</v>
       </c>
       <c r="C33" s="5">
-        <v>45045.7916666667</v>
+        <v>45045.791666666701</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="17.4" spans="1:4">
+    <row r="34" spans="1:4" ht="17.5">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="5">
-        <v>45068.7916666667</v>
+        <v>45068.791666666701</v>
       </c>
       <c r="C34" s="5">
-        <v>45068.9583333333</v>
+        <v>45068.958333333299</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="17.4" spans="1:4">
+    <row r="35" spans="1:4" ht="17.5">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="5">
-        <v>45090.5833333333</v>
+        <v>45090.583333333299</v>
       </c>
       <c r="C35" s="5">
-        <v>45090.7083333333</v>
+        <v>45090.708333333299</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="17.4" spans="1:4">
+    <row r="36" spans="1:4" ht="17.5">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="5">
-        <v>45097.6666666667</v>
+        <v>45097.666666666701</v>
       </c>
       <c r="C36" s="5">
         <v>45097.75</v>
@@ -1694,12 +1112,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" ht="17.4" spans="1:4">
+    <row r="37" spans="1:4" ht="17.5">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="5">
-        <v>45097.8333333333</v>
+        <v>45097.833333333299</v>
       </c>
       <c r="C37" s="5">
         <v>45097.875</v>
@@ -1708,35 +1126,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="17.4" spans="1:4">
+    <row r="38" spans="1:4" ht="17.5">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="5">
-        <v>45126.5208333333</v>
+        <v>45126.520833333299</v>
       </c>
       <c r="C38" s="5">
-        <v>45126.5833333333</v>
+        <v>45126.583333333299</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" ht="17.4" spans="1:4">
+    <row r="39" spans="1:4" ht="17.5">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="5">
-        <v>45131.8333333333</v>
+        <v>45131.833333333299</v>
       </c>
       <c r="C39" s="5">
-        <v>45131.8958333333</v>
+        <v>45131.895833333299</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="17.4" spans="1:4">
+    <row r="40" spans="1:4" ht="17.5">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
@@ -1744,18 +1162,18 @@
         <v>45172.875</v>
       </c>
       <c r="C40" s="5">
-        <v>45172.9166666667</v>
+        <v>45172.916666666701</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="17.4" spans="1:4">
+    <row r="41" spans="1:4" ht="17.5">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="5">
-        <v>45147.8333333333</v>
+        <v>45147.833333333299</v>
       </c>
       <c r="C41" s="5">
         <v>45147.875</v>
@@ -1764,12 +1182,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="17.4" spans="1:4">
+    <row r="42" spans="1:4" ht="17.5">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="5">
-        <v>45174.4166666667</v>
+        <v>45174.416666666701</v>
       </c>
       <c r="C42" s="5">
         <v>45174.75</v>
@@ -1778,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" ht="17.4" spans="1:4">
+    <row r="43" spans="1:4" ht="17.5">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1792,8 +1210,133 @@
         <v>5</v>
       </c>
     </row>
+    <row r="44" spans="1:4" ht="17.5">
+      <c r="A44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45213.645833333336</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45213.729166666664</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.5">
+      <c r="A45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45216.6875</v>
+      </c>
+      <c r="C45" s="7">
+        <v>45216.770833333336</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.5">
+      <c r="A46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45226.375</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45227.5</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.5">
+      <c r="A47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45230.791666666664</v>
+      </c>
+      <c r="C47" s="7">
+        <v>45230.833333333336</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.5">
+      <c r="A48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45231.604166666664</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45231.6875</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.5">
+      <c r="A49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="7">
+        <v>45231.666666666664</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45231.75</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.5">
+      <c r="A50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="7">
+        <v>45233.729166666664</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45233.770833333336</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.5">
+      <c r="A51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="7">
+        <v>45233.875</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45233.875</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.5">
+      <c r="A52" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>45257.791666666664</v>
+      </c>
+      <c r="C52" s="7">
+        <v>45257.833333333336</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>